--- a/figure/fsperf.xlsx
+++ b/figure/fsperf.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Performance" sheetId="2" r:id="rId2"/>
+    <sheet name="precision" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,24 +21,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Expectation</t>
   </si>
   <si>
     <t>Reality</t>
+  </si>
+  <si>
+    <t>string_match      0.0200000007947      0.0833333333333</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>pthreads</t>
+  </si>
+  <si>
+    <t>Cheetah</t>
+  </si>
+  <si>
+    <t>blackscholes        </t>
+  </si>
+  <si>
+    <t>bodytrack          </t>
+  </si>
+  <si>
+    <t>canneal           </t>
+  </si>
+  <si>
+    <t>facesim     </t>
+  </si>
+  <si>
+    <t>freqmine     </t>
+  </si>
+  <si>
+    <t>histogram     </t>
+  </si>
+  <si>
+    <t>kmeans</t>
+  </si>
+  <si>
+    <t>linear_regression     </t>
+  </si>
+  <si>
+    <t>matrix_multiply    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pca      </t>
+  </si>
+  <si>
+    <t>reverse_index     </t>
+  </si>
+  <si>
+    <t>streamcluster   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">swaptions      </t>
+  </si>
+  <si>
+    <t>word_count     </t>
+  </si>
+  <si>
+    <t>x264      </t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>fluidanimate    </t>
+  </si>
+  <si>
+    <t>string_match</t>
+  </si>
+  <si>
+    <t>freqmine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -54,6 +126,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,8 +168,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -247,11 +354,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2123435560"/>
-        <c:axId val="2123600328"/>
+        <c:axId val="2089928568"/>
+        <c:axId val="2090112312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2123435560"/>
+        <c:axId val="2089928568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123600328"/>
+        <c:crossAx val="2090112312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -318,7 +425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2123600328"/>
+        <c:axId val="2090112312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123435560"/>
+        <c:crossAx val="2089928568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -411,6 +518,428 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pthreads</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$D$2:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes        </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack          </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal           </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facesim     </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fluidanimate    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>histogram     </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>linear_regression     </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>matrix_multiply    </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pca      </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>reverse_index     </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster   </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions      </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>word_count     </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>x264      </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cheetah</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$D$2:$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>blackscholes        </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bodytrack          </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>canneal           </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>facesim     </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fluidanimate    </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>freqmine</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>histogram     </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>kmeans</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>linear_regression     </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>matrix_multiply    </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>pca      </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>string_match</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>reverse_index     </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>streamcluster   </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>swaptions      </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>word_count     </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>x264      </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>AVERAGE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.016516013843432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.078928666621412</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.057605941979834</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.008333333026122</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.113757283990579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.026315789473684</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.988420181924015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.306298142348139</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.051634296359567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.096361996334811</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.019756838967566</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.066115702479339</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.045611249693084</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.075977993352689</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.995798323325616</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.01515405226589</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.220158267377653</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.069573180786084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2107441432"/>
+        <c:axId val="2100208104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2107441432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100208104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2100208104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Normallized Runtime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2107441432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="0.02"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.894095330329698"/>
+          <c:y val="0.425928135387571"/>
+          <c:w val="0.0878028548570466"/>
+          <c:h val="0.14445267375286"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -425,6 +954,41 @@
       <xdr:colOff>406400</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2679700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -770,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -845,4 +1409,483 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="4" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>59.739999999600002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>60.726666666600003</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>A2</f>
+        <v>blackscholes        </v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <f>C2/B2</f>
+        <v>1.0165160138434317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>75.046666666899995</v>
+      </c>
+      <c r="C3" s="2">
+        <v>80.970000001299994</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D18" si="0">A3</f>
+        <v>bodytrack          </v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f>C3/B3</f>
+        <v>1.0789286666214122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>115.786666666</v>
+      </c>
+      <c r="C4" s="2">
+        <v>122.456666668</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>canneal           </v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <f>C4/B4</f>
+        <v>1.0576059419798343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.2000000005000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.2433333322399998</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>facesim     </v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <f>C5/B5</f>
+        <v>1.0083333330261217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>65.783333333800002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>73.266666665700001</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>fluidanimate    </v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <f>C6/B6</f>
+        <v>1.1137572839905789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>freqmine</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <f>C7/B7</f>
+        <v>1.0263157894736843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>4.0300000011900003</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3.9833333343300001</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>histogram     </v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <f>C8/B8</f>
+        <v>0.98842018192401482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>14.7133333335</v>
+      </c>
+      <c r="C9" s="4">
+        <v>19.220000001300001</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>kmeans</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <f>C9/B9</f>
+        <v>1.306298142348139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.0366666664700004</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.3999999985100002</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>linear_regression     </v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <f>C10/B10</f>
+        <v>1.0516342963595673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2">
+        <v>22.173333334399999</v>
+      </c>
+      <c r="C11" s="2">
+        <v>24.3099999999</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>matrix_multiply    </v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <f>C11/B11</f>
+        <v>1.0963619963348112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>19.739999998999998</v>
+      </c>
+      <c r="C12" s="2">
+        <v>20.130000000199999</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">pca      </v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <f>C12/B12</f>
+        <v>1.0197568389675662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12.9</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>string_match</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5">
+        <f>C13/B13</f>
+        <v>1.0661157024793388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>146.96666666900001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>153.669999999</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>reverse_index     </v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <f>C14/B14</f>
+        <v>1.0456112496930838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>350.80333333200002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>377.45666666</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>streamcluster   </v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <f>C15/B15</f>
+        <v>1.0759779933526894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.793333331744</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.79000000158899997</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">swaptions      </v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <f>C16/B16</f>
+        <v>0.99579832332561613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>39.813333332500001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>40.416666666700003</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>word_count     </v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <f>C17/B17</f>
+        <v>1.01515405226589</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>40.016666668200003</v>
+      </c>
+      <c r="C18" s="2">
+        <v>48.826666668100003</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>x264      </v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <f>C18/B18</f>
+        <v>1.2201582673776532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f>AVERAGE(F2:F18)</f>
+        <v>1.0695731807860842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>AVERAGE(F2:F20)</f>
+        <v>1.069573180786084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3.1699999992999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5.5699999978100001</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22">
+        <f t="shared" ref="F22" si="1">C22/B22</f>
+        <v>1.7570977914952584</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/figure/fsperf.xlsx
+++ b/figure/fsperf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Expectation</t>
   </si>
@@ -96,6 +96,21 @@
   </si>
   <si>
     <t>freqmine</t>
+  </si>
+  <si>
+    <t>With-FS</t>
+  </si>
+  <si>
+    <t>No-FS</t>
+  </si>
+  <si>
+    <t>histogram</t>
+  </si>
+  <si>
+    <t>reverse_index</t>
+  </si>
+  <si>
+    <t>word_count</t>
   </si>
 </sst>
 </file>
@@ -168,7 +183,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -187,6 +202,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -354,11 +370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2089928568"/>
-        <c:axId val="2090112312"/>
+        <c:axId val="2092571784"/>
+        <c:axId val="2105089848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2089928568"/>
+        <c:axId val="2092571784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090112312"/>
+        <c:crossAx val="2105089848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -425,7 +441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090112312"/>
+        <c:axId val="2105089848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +490,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089928568"/>
+        <c:crossAx val="2092571784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -645,6 +661,9 @@
                 <c:pt idx="4">
                   <c:v>1.0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
                 <c:pt idx="6">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -658,6 +677,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
@@ -837,11 +859,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2107441432"/>
-        <c:axId val="2100208104"/>
+        <c:axId val="2092250872"/>
+        <c:axId val="2092714728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2107441432"/>
+        <c:axId val="2092250872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +882,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2100208104"/>
+        <c:crossAx val="2092714728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100208104"/>
+        <c:axId val="2092714728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +920,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107441432"/>
+        <c:crossAx val="2092250872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="0.02"/>
@@ -910,8 +932,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.894095330329698"/>
-          <c:y val="0.425928135387571"/>
+          <c:x val="0.88874773674681"/>
+          <c:y val="0.358512405050492"/>
           <c:w val="0.0878028548570466"/>
           <c:h val="0.14445267375286"/>
         </c:manualLayout>
@@ -936,6 +958,242 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>With-FS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$D$51:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>word_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$E$51:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No-FS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$D$51:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>histogram</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>reverse_index</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>word_count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$51:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.998766954377312</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.999308437067773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.998783454987835</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2103124712"/>
+        <c:axId val="2103331640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2103124712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103331640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2103331640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Runtime</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2103124712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.001"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.847095382182031"/>
+          <c:y val="0.365356882473024"/>
+          <c:w val="0.111419901660764"/>
+          <c:h val="0.185952901720618"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1002,6 +1260,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1334,8 +1622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1413,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1462,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5">
-        <f>C2/B2</f>
+        <f t="shared" ref="F2:F18" si="0">C2/B2</f>
         <v>1.0165160138434317</v>
       </c>
     </row>
@@ -1477,14 +1765,14 @@
         <v>80.970000001299994</v>
       </c>
       <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D18" si="0">A3</f>
+        <f t="shared" ref="D3:D18" si="1">A3</f>
         <v>bodytrack          </v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>1.0789286666214122</v>
       </c>
     </row>
@@ -1499,14 +1787,14 @@
         <v>122.456666668</v>
       </c>
       <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>canneal           </v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
       </c>
       <c r="F4" s="5">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>1.0576059419798343</v>
       </c>
     </row>
@@ -1521,14 +1809,14 @@
         <v>5.2433333322399998</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>facesim     </v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
       </c>
       <c r="F5" s="5">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>1.0083333330261217</v>
       </c>
     </row>
@@ -1543,14 +1831,14 @@
         <v>73.266666665700001</v>
       </c>
       <c r="D6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fluidanimate    </v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6" s="5">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>1.1137572839905789</v>
       </c>
     </row>
@@ -1565,12 +1853,14 @@
         <v>58.5</v>
       </c>
       <c r="D7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>freqmine</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>freqmine</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <f>C7/B7</f>
         <v>1.0263157894736843</v>
       </c>
     </row>
@@ -1585,14 +1875,14 @@
         <v>3.9833333343300001</v>
       </c>
       <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>histogram     </v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
       </c>
       <c r="F8" s="5">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>0.98842018192401482</v>
       </c>
     </row>
@@ -1607,14 +1897,14 @@
         <v>19.220000001300001</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>kmeans</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
       </c>
       <c r="F9" s="7">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>1.306298142348139</v>
       </c>
     </row>
@@ -1629,14 +1919,14 @@
         <v>7.3999999985100002</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>linear_regression     </v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10" s="5">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>1.0516342963595673</v>
       </c>
     </row>
@@ -1651,14 +1941,14 @@
         <v>24.3099999999</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>matrix_multiply    </v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
       </c>
       <c r="F11" s="5">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>1.0963619963348112</v>
       </c>
     </row>
@@ -1673,14 +1963,14 @@
         <v>20.130000000199999</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">pca      </v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12" s="5">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>1.0197568389675662</v>
       </c>
     </row>
@@ -1695,12 +1985,14 @@
         <v>12.9</v>
       </c>
       <c r="D13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>string_match</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>string_match</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <f>C13/B13</f>
         <v>1.0661157024793388</v>
       </c>
     </row>
@@ -1715,14 +2007,14 @@
         <v>153.669999999</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>reverse_index     </v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14" s="5">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>1.0456112496930838</v>
       </c>
     </row>
@@ -1737,14 +2029,14 @@
         <v>377.45666666</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>streamcluster   </v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
       <c r="F15" s="5">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>1.0759779933526894</v>
       </c>
     </row>
@@ -1759,14 +2051,14 @@
         <v>0.79000000158899997</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">swaptions      </v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
       <c r="F16" s="5">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>0.99579832332561613</v>
       </c>
     </row>
@@ -1781,14 +2073,14 @@
         <v>40.416666666700003</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>word_count     </v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
       <c r="F17" s="5">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>1.01515405226589</v>
       </c>
     </row>
@@ -1803,14 +2095,14 @@
         <v>48.826666668100003</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>x264      </v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
       <c r="F18" s="5">
-        <f>C18/B18</f>
+        <f t="shared" si="0"/>
         <v>1.2201582673776532</v>
       </c>
     </row>
@@ -1855,8 +2147,90 @@
       </c>
       <c r="D22" s="2"/>
       <c r="F22">
-        <f t="shared" ref="F22" si="1">C22/B22</f>
+        <f t="shared" ref="F22" si="2">C22/B22</f>
         <v>1.7570977914952584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" t="str">
+        <f>B50</f>
+        <v>With-FS</v>
+      </c>
+      <c r="F50" t="str">
+        <f>C50</f>
+        <v>No-FS</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51">
+        <v>8.11</v>
+      </c>
+      <c r="C51">
+        <v>8.1</v>
+      </c>
+      <c r="D51" t="str">
+        <f>A51</f>
+        <v>histogram</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="8">
+        <f>C51/B51</f>
+        <v>0.998766954377312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52">
+        <v>28.92</v>
+      </c>
+      <c r="C52">
+        <v>28.9</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" ref="D52:D53" si="3">A52</f>
+        <v>reverse_index</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8">
+        <f t="shared" ref="F52:F53" si="4">C52/B52</f>
+        <v>0.99930843706777306</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C53">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v>word_count</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="4"/>
+        <v>0.99878345498783461</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +2249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/figure/fsperf.xlsx
+++ b/figure/fsperf.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="008000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -314,7 +317,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -370,11 +373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2092571784"/>
-        <c:axId val="2105089848"/>
+        <c:axId val="-2124329000"/>
+        <c:axId val="-2122527784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2092571784"/>
+        <c:axId val="-2124329000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -387,26 +390,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600">
+                  <a:defRPr sz="1200" b="0">
                     <a:latin typeface="Palatino"/>
                     <a:cs typeface="Palatino"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600">
+                  <a:rPr lang="en-US" sz="1200" b="0">
                     <a:latin typeface="Palatino"/>
                     <a:cs typeface="Palatino"/>
                   </a:rPr>
                   <a:t>Number</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                  <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
                     <a:latin typeface="Palatino"/>
                     <a:cs typeface="Palatino"/>
                   </a:rPr>
                   <a:t> of Threads</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1600">
+                <a:endParaRPr lang="en-US" sz="1200" b="0">
                   <a:latin typeface="Palatino"/>
                   <a:cs typeface="Palatino"/>
                 </a:endParaRPr>
@@ -433,7 +436,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2105089848"/>
+        <c:crossAx val="-2122527784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -441,7 +444,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2105089848"/>
+        <c:axId val="-2122527784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,13 +458,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600">
+                  <a:defRPr sz="1200">
                     <a:latin typeface="Palatino"/>
                     <a:cs typeface="Palatino"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600">
+                  <a:rPr lang="en-US" sz="1200">
                     <a:latin typeface="Palatino"/>
                     <a:cs typeface="Palatino"/>
                   </a:rPr>
@@ -490,7 +493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092571784"/>
+        <c:crossAx val="-2124329000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -513,7 +516,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1">
+            <a:defRPr sz="1200" b="0">
               <a:latin typeface="Palatino"/>
               <a:cs typeface="Palatino"/>
             </a:defRPr>
@@ -859,11 +862,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2092250872"/>
-        <c:axId val="2092714728"/>
+        <c:axId val="-2122768296"/>
+        <c:axId val="-2122765288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2092250872"/>
+        <c:axId val="-2122768296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2092714728"/>
+        <c:crossAx val="-2122765288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -890,7 +893,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2092714728"/>
+        <c:axId val="-2122765288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092250872"/>
+        <c:crossAx val="-2122768296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="0.02"/>
@@ -1110,11 +1113,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2103124712"/>
-        <c:axId val="2103331640"/>
+        <c:axId val="-2123037480"/>
+        <c:axId val="-2123034536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2103124712"/>
+        <c:axId val="-2123037480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1126,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103331640"/>
+        <c:crossAx val="-2123034536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1131,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103331640"/>
+        <c:axId val="-2123034536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,14 +1162,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103124712"/>
+        <c:crossAx val="-2123037480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.001"/>
@@ -1622,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1703,7 +1705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
